--- a/toolkit.excel.test/TestWorkbooks/UT1.xlsx
+++ b/toolkit.excel.test/TestWorkbooks/UT1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>StringTest</t>
   </si>
@@ -383,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,4 +897,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M14:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="14" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>50000</v>
+      </c>
+      <c r="P17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/toolkit.excel.test/TestWorkbooks/UT1.xlsx
+++ b/toolkit.excel.test/TestWorkbooks/UT1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>StringTest</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>1,5</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <dimension ref="M14:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17">
         <v>50000</v>
